--- a/WstepnyBOM.xlsx
+++ b/WstepnyBOM.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="150">
   <si>
     <t>R1</t>
   </si>
@@ -369,6 +369,111 @@
   </si>
   <si>
     <t>HP06W2J0102T5E</t>
+  </si>
+  <si>
+    <t>https://www.tme.eu/pl/details/smd1206-430r/rezystory-smd-1206/royal-ohm/1206s4j0431t5e/</t>
+  </si>
+  <si>
+    <t>1206S4J0431T5E</t>
+  </si>
+  <si>
+    <t>https://www.tme.eu/pl/details/smd1206-1m/rezystory-smd-1206/royal-ohm/1206s4j0105t5e/</t>
+  </si>
+  <si>
+    <t>1206S4J0105T5E</t>
+  </si>
+  <si>
+    <t>https://www.tme.eu/pl/details/smd1206-470r/rezystory-smd-1206/royal-ohm/1206s4j0471t5e/</t>
+  </si>
+  <si>
+    <t>1206S4J0471T5E</t>
+  </si>
+  <si>
+    <t>https://www.tme.eu/pl/details/smd1206-270r/rezystory-smd-1206/royal-ohm/1206s4j0271t5e/</t>
+  </si>
+  <si>
+    <t>1206S4J0271T5E</t>
+  </si>
+  <si>
+    <t>https://www.tme.eu/pl/details/rc1206fr-0722k/rezystory-smd-1206/yageo/rc1206fr-0722kl/</t>
+  </si>
+  <si>
+    <t>RC1206FR-0722KL</t>
+  </si>
+  <si>
+    <t>PRP185-470R-A16P1</t>
+  </si>
+  <si>
+    <t>https://www.tme.eu/pl/details/prp185-470r-a/potencjometry-jednoobrotowe-weglowe/telpod/prp185-470r-a16p1/</t>
+  </si>
+  <si>
+    <t>https://www.tme.eu/pl/details/t910y-100k/potencjometry-tht-wieloobrotowe-3-8-cala/sr-passives/</t>
+  </si>
+  <si>
+    <t>T910Y-100K</t>
+  </si>
+  <si>
+    <t>https://www.tme.eu/pl/details/c0603c683k5rac/kondensatory-mlcc-smd-0603/kemet/c0603c683k5ractu/</t>
+  </si>
+  <si>
+    <t>C0603C683K5RACTU</t>
+  </si>
+  <si>
+    <t>https://www.tme.eu/pl/details/cl10b103kb8nnnc/kondensatory-mlcc-smd-0603/samsung/</t>
+  </si>
+  <si>
+    <t>CL10B103KB8NNNC</t>
+  </si>
+  <si>
+    <t>https://www.tme.eu/pl/details/km2200_25/kondensatory-elektrolityczne-tht-105degc/samxon/km-2200u-25v/</t>
+  </si>
+  <si>
+    <t>KM 2200U/25V</t>
+  </si>
+  <si>
+    <t>https://www.tme.eu/pl/details/rc1e476m6l006vr/kondensatory-elektrolityczne-smd-105degc/samwha/</t>
+  </si>
+  <si>
+    <t>RC1E476M6L006VR</t>
+  </si>
+  <si>
+    <t>https://www.tme.eu/pl/details/cl10b104ka8nnnc/kondensatory-mlcc-smd-0603/samsung/</t>
+  </si>
+  <si>
+    <t>CL10B104KA8NNNC</t>
+  </si>
+  <si>
+    <t>https://www.tme.eu/pl/details/cl10b391kb8nnnc/kondensatory-mlcc-smd-0603/samsung/</t>
+  </si>
+  <si>
+    <t>CL10B391KB8NNNC</t>
+  </si>
+  <si>
+    <t>https://www.tme.eu/pl/details/cl10b224ka8nnnc/kondensatory-mlcc-smd-0603/samsung/</t>
+  </si>
+  <si>
+    <t>CL10B224KA8NNNC</t>
+  </si>
+  <si>
+    <t>https://www.tme.eu/pl/details/cl10b223kb8nnnc/kondensatory-mlcc-smd-0603/samsung/</t>
+  </si>
+  <si>
+    <t>CL10B223KB8NNNC</t>
+  </si>
+  <si>
+    <t>może R8 wymienic na 560Ohm</t>
+  </si>
+  <si>
+    <t>https://www.tme.eu/pl/details/ll-s194pvc-v1-2b/diody-led-smd-kolorowe/lucky-light/</t>
+  </si>
+  <si>
+    <t>LL-S194PVC-V1-2B</t>
+  </si>
+  <si>
+    <t>https://www.tme.eu/pl/details/1n4148-0603/diody-uniwersalne-smd/dc-components/cd4148wt-0603c/</t>
+  </si>
+  <si>
+    <t>CD4148WT(0603C)</t>
   </si>
 </sst>
 </file>
@@ -701,14 +806,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="16.44140625" customWidth="1"/>
-    <col min="5" max="5" width="16.21875" customWidth="1"/>
+    <col min="4" max="4" width="25.77734375" customWidth="1"/>
+    <col min="5" max="5" width="17.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:6" x14ac:dyDescent="0.3">
@@ -962,6 +1067,12 @@
       <c r="C18">
         <v>430</v>
       </c>
+      <c r="E18" t="s">
+        <v>116</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
@@ -970,6 +1081,12 @@
       <c r="C19" t="s">
         <v>27</v>
       </c>
+      <c r="E19" t="s">
+        <v>118</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
@@ -978,6 +1095,12 @@
       <c r="C20" t="s">
         <v>27</v>
       </c>
+      <c r="E20" t="s">
+        <v>118</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
@@ -986,6 +1109,12 @@
       <c r="C21" t="s">
         <v>27</v>
       </c>
+      <c r="E21" t="s">
+        <v>118</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
@@ -994,6 +1123,12 @@
       <c r="C22">
         <v>470</v>
       </c>
+      <c r="E22" t="s">
+        <v>120</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
@@ -1002,6 +1137,12 @@
       <c r="C23">
         <v>270</v>
       </c>
+      <c r="E23" t="s">
+        <v>122</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
@@ -1010,6 +1151,12 @@
       <c r="C24" t="s">
         <v>31</v>
       </c>
+      <c r="E24" t="s">
+        <v>124</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
@@ -1021,6 +1168,12 @@
       <c r="D25" t="s">
         <v>33</v>
       </c>
+      <c r="E25" t="s">
+        <v>125</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
@@ -1032,6 +1185,12 @@
       <c r="D26" t="s">
         <v>36</v>
       </c>
+      <c r="E26" t="s">
+        <v>128</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
@@ -1040,6 +1199,12 @@
       <c r="C27" t="s">
         <v>38</v>
       </c>
+      <c r="E27" t="s">
+        <v>130</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
@@ -1048,6 +1213,12 @@
       <c r="C28" t="s">
         <v>45</v>
       </c>
+      <c r="E28" t="s">
+        <v>132</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
@@ -1056,6 +1227,12 @@
       <c r="C29" t="s">
         <v>45</v>
       </c>
+      <c r="E29" t="s">
+        <v>132</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
@@ -1064,6 +1241,12 @@
       <c r="C30" t="s">
         <v>45</v>
       </c>
+      <c r="E30" t="s">
+        <v>132</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
@@ -1072,6 +1255,12 @@
       <c r="C31" t="s">
         <v>45</v>
       </c>
+      <c r="E31" t="s">
+        <v>132</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
@@ -1080,16 +1269,28 @@
       <c r="C32" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E32" t="s">
+        <v>132</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
         <v>44</v>
       </c>
       <c r="C33" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E33" t="s">
+        <v>132</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
         <v>46</v>
       </c>
@@ -1099,8 +1300,14 @@
       <c r="D34" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E34" t="s">
+        <v>134</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
         <v>49</v>
       </c>
@@ -1110,8 +1317,14 @@
       <c r="D35" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E35" t="s">
+        <v>136</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
         <v>50</v>
       </c>
@@ -1121,8 +1334,14 @@
       <c r="D36" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E36" t="s">
+        <v>136</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
         <v>51</v>
       </c>
@@ -1132,8 +1351,14 @@
       <c r="D37" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E37" t="s">
+        <v>136</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
         <v>52</v>
       </c>
@@ -1143,72 +1368,129 @@
       <c r="D38" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E38" t="s">
+        <v>136</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
         <v>54</v>
       </c>
       <c r="C39" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E39" t="s">
+        <v>138</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
         <v>55</v>
       </c>
       <c r="C40" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E40" t="s">
+        <v>138</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
         <v>57</v>
       </c>
       <c r="C41" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E41" t="s">
+        <v>140</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
         <v>59</v>
       </c>
       <c r="C42" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E42" t="s">
+        <v>142</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
         <v>61</v>
       </c>
       <c r="C43" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E43" t="s">
+        <v>144</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B44" t="s">
         <v>63</v>
       </c>
       <c r="C44" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D44" t="s">
+        <v>145</v>
+      </c>
+      <c r="E44" t="s">
+        <v>147</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
         <v>65</v>
       </c>
       <c r="C45" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E45" t="s">
+        <v>149</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
         <v>66</v>
       </c>
       <c r="C46" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E46" t="s">
+        <v>149</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
         <v>68</v>
       </c>
@@ -1216,7 +1498,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
         <v>70</v>
       </c>
@@ -1357,8 +1639,37 @@
     <hyperlink ref="F15" r:id="rId14"/>
     <hyperlink ref="F16" r:id="rId15"/>
     <hyperlink ref="F17" r:id="rId16"/>
+    <hyperlink ref="F18" r:id="rId17"/>
+    <hyperlink ref="F19" r:id="rId18"/>
+    <hyperlink ref="F20" r:id="rId19"/>
+    <hyperlink ref="F21" r:id="rId20"/>
+    <hyperlink ref="F22" r:id="rId21"/>
+    <hyperlink ref="F23" r:id="rId22"/>
+    <hyperlink ref="F24" r:id="rId23"/>
+    <hyperlink ref="F25" r:id="rId24"/>
+    <hyperlink ref="F26" r:id="rId25"/>
+    <hyperlink ref="F27" r:id="rId26"/>
+    <hyperlink ref="F28" r:id="rId27"/>
+    <hyperlink ref="F29" r:id="rId28"/>
+    <hyperlink ref="F30" r:id="rId29"/>
+    <hyperlink ref="F31" r:id="rId30"/>
+    <hyperlink ref="F32" r:id="rId31"/>
+    <hyperlink ref="F33" r:id="rId32"/>
+    <hyperlink ref="F34" r:id="rId33"/>
+    <hyperlink ref="F35" r:id="rId34"/>
+    <hyperlink ref="F36" r:id="rId35"/>
+    <hyperlink ref="F37" r:id="rId36"/>
+    <hyperlink ref="F38" r:id="rId37"/>
+    <hyperlink ref="F39" r:id="rId38"/>
+    <hyperlink ref="F40" r:id="rId39"/>
+    <hyperlink ref="F41" r:id="rId40"/>
+    <hyperlink ref="F42" r:id="rId41"/>
+    <hyperlink ref="F43" r:id="rId42"/>
+    <hyperlink ref="F44" r:id="rId43"/>
+    <hyperlink ref="F45" r:id="rId44"/>
+    <hyperlink ref="F46" r:id="rId45"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId17"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId46"/>
 </worksheet>
 </file>
--- a/WstepnyBOM.xlsx
+++ b/WstepnyBOM.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Elektronika\Semestr 7\CAMCADEDA\Projekt\CAM-CAD-EDA-PROJEKT-\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\staska72\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BDBA24E-3423-4D86-BD93-9EE79E0C1A1E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="174">
   <si>
     <t>R1</t>
   </si>
@@ -474,13 +475,85 @@
   </si>
   <si>
     <t>CD4148WT(0603C)</t>
+  </si>
+  <si>
+    <t>BC807-16-DIO</t>
+  </si>
+  <si>
+    <t>https://www.tme.eu/pl/details/bc807-16-dio/tranzystory-pnp-smd/diotec-semiconductor/bc807-16/</t>
+  </si>
+  <si>
+    <t>2DD2098R-13</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>https://www.tme.eu/pl/details/2dd2098r-13/tranzystory-npn-smd/diodes-incorporated/</t>
+  </si>
+  <si>
+    <t>CNY17-1S</t>
+  </si>
+  <si>
+    <t>https://www.tme.eu/pl/details/cny17-1s/transoptory-wyjscie-analogowe/liteon/</t>
+  </si>
+  <si>
+    <t>74HC6323AD.112</t>
+  </si>
+  <si>
+    <t>https://www.tme.eu/pl/details/74hc6323ad.112/liczniki-dzielniki/nexperia/</t>
+  </si>
+  <si>
+    <t>DG303BDY-E3</t>
+  </si>
+  <si>
+    <t>https://www.tme.eu/pl/details/dg303bdy-e3/multipleksery-i-przelaczniki-analogowe/vishay/</t>
+  </si>
+  <si>
+    <t>L78L08ACD13TR</t>
+  </si>
+  <si>
+    <t>https://www.tme.eu/pl/details/l78l08acd13tr/stabilizatory-napiecia-nieregulowane/stmicroelectronics/</t>
+  </si>
+  <si>
+    <t>L78L05ABD13TR</t>
+  </si>
+  <si>
+    <t>https://www.tme.eu/pl/details/l78l05abd13tr/stabilizatory-napiecia-nieregulowane/stmicroelectronics/</t>
+  </si>
+  <si>
+    <t>ICL7660SCBAZ-T</t>
+  </si>
+  <si>
+    <t>https://www.tme.eu/pl/details/icl7660scbaz-t/regulatory-napiecia-uklady-dc-dc/renesas-intersil/</t>
+  </si>
+  <si>
+    <t>LM6171BIM</t>
+  </si>
+  <si>
+    <t>https://www.tme.eu/pl/details/lm6171bim/wzmacniacze-operacyjne-smd/texas-instruments/lm171bim-nopb/</t>
+  </si>
+  <si>
+    <t>AP4310AMTR-G1</t>
+  </si>
+  <si>
+    <t>https://www.tme.eu/pl/details/ap4310amtr-g1/wzmacniacze-operacyjne-smd/diodes-incorporated/</t>
+  </si>
+  <si>
+    <t>LD-SP-2908</t>
+  </si>
+  <si>
+    <t>https://www.tme.eu/pl/details/ld-sp-2908/glosniki/loudity/</t>
+  </si>
+  <si>
+    <t>0,5W ||| ?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -497,6 +570,13 @@
       <family val="2"/>
       <charset val="238"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
     </font>
   </fonts>
   <fills count="2">
@@ -520,9 +600,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperłącze" xfId="1" builtinId="8"/>
@@ -803,20 +884,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:F62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D62" sqref="D62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="25.77734375" customWidth="1"/>
-    <col min="5" max="5" width="17.5546875" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>94</v>
       </c>
@@ -833,7 +914,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -847,7 +928,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>1</v>
       </c>
@@ -861,7 +942,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>4</v>
       </c>
@@ -875,7 +956,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>5</v>
       </c>
@@ -889,7 +970,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>6</v>
       </c>
@@ -903,7 +984,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>7</v>
       </c>
@@ -917,7 +998,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>8</v>
       </c>
@@ -931,7 +1012,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>10</v>
       </c>
@@ -945,7 +1026,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>11</v>
       </c>
@@ -959,7 +1040,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>12</v>
       </c>
@@ -973,7 +1054,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>14</v>
       </c>
@@ -987,7 +1068,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>16</v>
       </c>
@@ -1001,7 +1082,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>17</v>
       </c>
@@ -1015,7 +1096,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>18</v>
       </c>
@@ -1029,7 +1110,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>19</v>
       </c>
@@ -1043,7 +1124,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>21</v>
       </c>
@@ -1060,7 +1141,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>23</v>
       </c>
@@ -1074,7 +1155,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>24</v>
       </c>
@@ -1088,7 +1169,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>25</v>
       </c>
@@ -1102,7 +1183,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>26</v>
       </c>
@@ -1116,7 +1197,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>28</v>
       </c>
@@ -1130,7 +1211,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>29</v>
       </c>
@@ -1144,7 +1225,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>30</v>
       </c>
@@ -1158,7 +1239,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>32</v>
       </c>
@@ -1175,7 +1256,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>34</v>
       </c>
@@ -1192,7 +1273,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>37</v>
       </c>
@@ -1206,7 +1287,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>39</v>
       </c>
@@ -1220,7 +1301,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>40</v>
       </c>
@@ -1234,7 +1315,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>41</v>
       </c>
@@ -1248,7 +1329,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>42</v>
       </c>
@@ -1262,7 +1343,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>43</v>
       </c>
@@ -1276,7 +1357,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>44</v>
       </c>
@@ -1290,7 +1371,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>46</v>
       </c>
@@ -1307,7 +1388,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>49</v>
       </c>
@@ -1324,7 +1405,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>50</v>
       </c>
@@ -1341,7 +1422,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>51</v>
       </c>
@@ -1358,7 +1439,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>52</v>
       </c>
@@ -1375,7 +1456,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>54</v>
       </c>
@@ -1389,7 +1470,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>55</v>
       </c>
@@ -1403,7 +1484,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>57</v>
       </c>
@@ -1417,7 +1498,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>59</v>
       </c>
@@ -1431,7 +1512,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>61</v>
       </c>
@@ -1445,7 +1526,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="44" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>63</v>
       </c>
@@ -1462,7 +1543,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>65</v>
       </c>
@@ -1476,7 +1557,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>66</v>
       </c>
@@ -1490,127 +1571,226 @@
         <v>148</v>
       </c>
     </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>68</v>
       </c>
       <c r="C47" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="E47" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>70</v>
       </c>
       <c r="C48" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E48" t="s">
+        <v>150</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>71</v>
       </c>
       <c r="C49" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E49" t="s">
+        <v>150</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>69</v>
       </c>
       <c r="C50" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D50" t="s">
+        <v>153</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>74</v>
       </c>
       <c r="C51" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E51" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>76</v>
       </c>
       <c r="C52" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D52" t="s">
+        <v>153</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>77</v>
       </c>
       <c r="C53" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E53" t="s">
+        <v>157</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>78</v>
       </c>
       <c r="C54" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E54" t="s">
+        <v>157</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
         <v>79</v>
       </c>
       <c r="C55" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E55" t="s">
+        <v>157</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>81</v>
       </c>
       <c r="C56">
         <v>4066</v>
       </c>
-    </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D56" t="s">
+        <v>153</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
         <v>82</v>
       </c>
       <c r="C57" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E57" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
         <v>84</v>
       </c>
       <c r="C58" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E58" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
         <v>86</v>
       </c>
       <c r="C59" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E59" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
         <v>88</v>
       </c>
       <c r="C60" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E60" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
         <v>90</v>
       </c>
       <c r="C61" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E61" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
         <v>92</v>
       </c>
@@ -1618,58 +1798,80 @@
         <v>93</v>
       </c>
       <c r="D62" t="s">
-        <v>22</v>
+        <v>173</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>172</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1"/>
-    <hyperlink ref="F3" r:id="rId2"/>
-    <hyperlink ref="F4" r:id="rId3"/>
-    <hyperlink ref="F5" r:id="rId4"/>
-    <hyperlink ref="F6" r:id="rId5"/>
-    <hyperlink ref="F7" r:id="rId6"/>
-    <hyperlink ref="F8" r:id="rId7"/>
-    <hyperlink ref="F9" r:id="rId8"/>
-    <hyperlink ref="F10" r:id="rId9"/>
-    <hyperlink ref="F11" r:id="rId10"/>
-    <hyperlink ref="F12" r:id="rId11"/>
-    <hyperlink ref="F13" r:id="rId12"/>
-    <hyperlink ref="F14" r:id="rId13"/>
-    <hyperlink ref="F15" r:id="rId14"/>
-    <hyperlink ref="F16" r:id="rId15"/>
-    <hyperlink ref="F17" r:id="rId16"/>
-    <hyperlink ref="F18" r:id="rId17"/>
-    <hyperlink ref="F19" r:id="rId18"/>
-    <hyperlink ref="F20" r:id="rId19"/>
-    <hyperlink ref="F21" r:id="rId20"/>
-    <hyperlink ref="F22" r:id="rId21"/>
-    <hyperlink ref="F23" r:id="rId22"/>
-    <hyperlink ref="F24" r:id="rId23"/>
-    <hyperlink ref="F25" r:id="rId24"/>
-    <hyperlink ref="F26" r:id="rId25"/>
-    <hyperlink ref="F27" r:id="rId26"/>
-    <hyperlink ref="F28" r:id="rId27"/>
-    <hyperlink ref="F29" r:id="rId28"/>
-    <hyperlink ref="F30" r:id="rId29"/>
-    <hyperlink ref="F31" r:id="rId30"/>
-    <hyperlink ref="F32" r:id="rId31"/>
-    <hyperlink ref="F33" r:id="rId32"/>
-    <hyperlink ref="F34" r:id="rId33"/>
-    <hyperlink ref="F35" r:id="rId34"/>
-    <hyperlink ref="F36" r:id="rId35"/>
-    <hyperlink ref="F37" r:id="rId36"/>
-    <hyperlink ref="F38" r:id="rId37"/>
-    <hyperlink ref="F39" r:id="rId38"/>
-    <hyperlink ref="F40" r:id="rId39"/>
-    <hyperlink ref="F41" r:id="rId40"/>
-    <hyperlink ref="F42" r:id="rId41"/>
-    <hyperlink ref="F43" r:id="rId42"/>
-    <hyperlink ref="F44" r:id="rId43"/>
-    <hyperlink ref="F45" r:id="rId44"/>
-    <hyperlink ref="F46" r:id="rId45"/>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="F3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="F4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="F5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="F6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="F7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="F8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="F9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="F10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="F11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="F12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="F13" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="F14" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="F15" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="F16" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="F17" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="F18" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="F19" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="F20" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="F21" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="F22" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="F23" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="F24" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="F25" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="F26" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="F27" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="F28" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="F29" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="F30" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="F31" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="F32" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="F33" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="F34" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="F35" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="F36" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="F37" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="F38" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="F39" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="F40" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="F41" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="F42" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="F43" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="F44" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="F45" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="F46" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="F47" r:id="rId46" xr:uid="{640B7187-9376-4F94-8959-F470E0C9EEE5}"/>
+    <hyperlink ref="F48" r:id="rId47" xr:uid="{A24FB901-C22A-4D77-8207-B8608EA859F2}"/>
+    <hyperlink ref="F49" r:id="rId48" xr:uid="{88255A86-205E-4ECE-AE75-2C0186581811}"/>
+    <hyperlink ref="F50" r:id="rId49" xr:uid="{F1DB9E2B-E264-4EC7-B161-19B0223085F8}"/>
+    <hyperlink ref="F51" r:id="rId50" xr:uid="{4CBCC983-622F-48CD-85FB-C2EFE6DB628D}"/>
+    <hyperlink ref="F52" r:id="rId51" xr:uid="{3273A890-A618-4671-9137-9311A3D8C1B5}"/>
+    <hyperlink ref="F53" r:id="rId52" xr:uid="{8120BDA8-716F-46D3-8251-5755780A30AB}"/>
+    <hyperlink ref="F54" r:id="rId53" xr:uid="{553A00D4-1B0D-4B6A-9F74-77A8F0759F34}"/>
+    <hyperlink ref="F55" r:id="rId54" xr:uid="{DE1193CC-B0F6-4D41-BA56-DC9ACA1C6809}"/>
+    <hyperlink ref="F56" r:id="rId55" xr:uid="{7143723B-658A-4951-AA43-4032ACD82601}"/>
+    <hyperlink ref="F57" r:id="rId56" xr:uid="{C3E69288-0F38-4F1E-A11C-39CAAD8C8F62}"/>
+    <hyperlink ref="F58" r:id="rId57" xr:uid="{A32F4CDC-33FE-4272-8987-38FA7A988B16}"/>
+    <hyperlink ref="F59" r:id="rId58" xr:uid="{CA08BA1A-D1C5-45D4-A0EA-231BFE6D9940}"/>
+    <hyperlink ref="F60" r:id="rId59" xr:uid="{D8C3D4AD-EAFD-4AED-AA1B-117D375C915F}"/>
+    <hyperlink ref="F61" r:id="rId60" xr:uid="{9C87A8F7-2500-4B89-9770-FD1A73A2A423}"/>
+    <hyperlink ref="F62" r:id="rId61" xr:uid="{D44FF51B-EBEE-4CF2-AD5E-B435B0AF078D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId46"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId62"/>
 </worksheet>
 </file>
--- a/WstepnyBOM.xlsx
+++ b/WstepnyBOM.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\staska72\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\staska72\Documents\GitHub\CAM-CAD-EDA-PROJEKT-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BDBA24E-3423-4D86-BD93-9EE79E0C1A1E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1ABF647-E997-40C7-8A6E-7A8029DCD421}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="178">
   <si>
     <t>R1</t>
   </si>
@@ -547,6 +547,18 @@
   </si>
   <si>
     <t>0,5W ||| ?</t>
+  </si>
+  <si>
+    <t>library</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>? Upverter</t>
   </si>
 </sst>
 </file>
@@ -885,19 +897,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:F62"/>
+  <dimension ref="A1:F62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D62" sqref="D62"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="10.42578125" customWidth="1"/>
     <col min="4" max="4" width="25.7109375" customWidth="1"/>
     <col min="5" max="5" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>174</v>
+      </c>
       <c r="B1" t="s">
         <v>94</v>
       </c>
@@ -914,7 +930,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -928,7 +944,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>1</v>
       </c>
@@ -942,7 +958,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>4</v>
       </c>
@@ -956,7 +972,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>5</v>
       </c>
@@ -970,7 +986,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>6</v>
       </c>
@@ -984,7 +1000,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>7</v>
       </c>
@@ -998,7 +1014,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>8</v>
       </c>
@@ -1012,7 +1028,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>10</v>
       </c>
@@ -1026,7 +1042,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>11</v>
       </c>
@@ -1040,7 +1056,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>12</v>
       </c>
@@ -1054,7 +1070,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>14</v>
       </c>
@@ -1068,7 +1084,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>16</v>
       </c>
@@ -1082,7 +1098,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>17</v>
       </c>
@@ -1096,7 +1112,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>18</v>
       </c>
@@ -1110,7 +1126,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>19</v>
       </c>
@@ -1124,7 +1140,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>21</v>
       </c>
@@ -1141,7 +1157,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>23</v>
       </c>
@@ -1155,7 +1171,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>24</v>
       </c>
@@ -1169,7 +1185,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>25</v>
       </c>
@@ -1183,7 +1199,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>26</v>
       </c>
@@ -1197,7 +1213,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>28</v>
       </c>
@@ -1211,7 +1227,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>29</v>
       </c>
@@ -1225,7 +1241,10 @@
         <v>121</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>175</v>
+      </c>
       <c r="B24" t="s">
         <v>30</v>
       </c>
@@ -1239,7 +1258,10 @@
         <v>123</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>176</v>
+      </c>
       <c r="B25" t="s">
         <v>32</v>
       </c>
@@ -1256,7 +1278,10 @@
         <v>126</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>176</v>
+      </c>
       <c r="B26" t="s">
         <v>34</v>
       </c>
@@ -1273,7 +1298,10 @@
         <v>127</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>177</v>
+      </c>
       <c r="B27" t="s">
         <v>37</v>
       </c>
@@ -1287,7 +1315,10 @@
         <v>129</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>175</v>
+      </c>
       <c r="B28" t="s">
         <v>39</v>
       </c>
@@ -1301,7 +1332,10 @@
         <v>131</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>175</v>
+      </c>
       <c r="B29" t="s">
         <v>40</v>
       </c>
@@ -1315,7 +1349,10 @@
         <v>131</v>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>175</v>
+      </c>
       <c r="B30" t="s">
         <v>41</v>
       </c>
@@ -1329,7 +1366,10 @@
         <v>131</v>
       </c>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>175</v>
+      </c>
       <c r="B31" t="s">
         <v>42</v>
       </c>
@@ -1343,7 +1383,10 @@
         <v>131</v>
       </c>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>175</v>
+      </c>
       <c r="B32" t="s">
         <v>43</v>
       </c>
@@ -1357,7 +1400,10 @@
         <v>131</v>
       </c>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>175</v>
+      </c>
       <c r="B33" t="s">
         <v>44</v>
       </c>
@@ -1371,7 +1417,10 @@
         <v>131</v>
       </c>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>176</v>
+      </c>
       <c r="B34" t="s">
         <v>46</v>
       </c>
@@ -1388,7 +1437,10 @@
         <v>133</v>
       </c>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>176</v>
+      </c>
       <c r="B35" t="s">
         <v>49</v>
       </c>
@@ -1405,7 +1457,10 @@
         <v>135</v>
       </c>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>176</v>
+      </c>
       <c r="B36" t="s">
         <v>50</v>
       </c>
@@ -1422,7 +1477,10 @@
         <v>135</v>
       </c>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>176</v>
+      </c>
       <c r="B37" t="s">
         <v>51</v>
       </c>
@@ -1439,7 +1497,10 @@
         <v>135</v>
       </c>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>176</v>
+      </c>
       <c r="B38" t="s">
         <v>52</v>
       </c>
@@ -1456,7 +1517,10 @@
         <v>135</v>
       </c>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>176</v>
+      </c>
       <c r="B39" t="s">
         <v>54</v>
       </c>
@@ -1470,7 +1534,10 @@
         <v>137</v>
       </c>
     </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>176</v>
+      </c>
       <c r="B40" t="s">
         <v>55</v>
       </c>
@@ -1484,7 +1551,10 @@
         <v>137</v>
       </c>
     </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>176</v>
+      </c>
       <c r="B41" t="s">
         <v>57</v>
       </c>
@@ -1498,7 +1568,10 @@
         <v>139</v>
       </c>
     </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>176</v>
+      </c>
       <c r="B42" t="s">
         <v>59</v>
       </c>
@@ -1512,7 +1585,10 @@
         <v>141</v>
       </c>
     </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>176</v>
+      </c>
       <c r="B43" t="s">
         <v>61</v>
       </c>
@@ -1526,7 +1602,10 @@
         <v>143</v>
       </c>
     </row>
-    <row r="44" spans="2:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>176</v>
+      </c>
       <c r="B44" t="s">
         <v>63</v>
       </c>
@@ -1543,7 +1622,10 @@
         <v>146</v>
       </c>
     </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>176</v>
+      </c>
       <c r="B45" t="s">
         <v>65</v>
       </c>
@@ -1557,7 +1639,10 @@
         <v>148</v>
       </c>
     </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>176</v>
+      </c>
       <c r="B46" t="s">
         <v>66</v>
       </c>
@@ -1571,7 +1656,10 @@
         <v>148</v>
       </c>
     </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>176</v>
+      </c>
       <c r="B47" t="s">
         <v>68</v>
       </c>
@@ -1585,7 +1673,10 @@
         <v>151</v>
       </c>
     </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>176</v>
+      </c>
       <c r="B48" t="s">
         <v>70</v>
       </c>
@@ -1599,7 +1690,10 @@
         <v>151</v>
       </c>
     </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>176</v>
+      </c>
       <c r="B49" t="s">
         <v>71</v>
       </c>
@@ -1613,7 +1707,10 @@
         <v>151</v>
       </c>
     </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>175</v>
+      </c>
       <c r="B50" t="s">
         <v>69</v>
       </c>
@@ -1630,7 +1727,10 @@
         <v>154</v>
       </c>
     </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>176</v>
+      </c>
       <c r="B51" t="s">
         <v>74</v>
       </c>
@@ -1644,7 +1744,10 @@
         <v>156</v>
       </c>
     </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>176</v>
+      </c>
       <c r="B52" t="s">
         <v>76</v>
       </c>
@@ -1661,7 +1764,10 @@
         <v>158</v>
       </c>
     </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>176</v>
+      </c>
       <c r="B53" t="s">
         <v>77</v>
       </c>
@@ -1675,7 +1781,10 @@
         <v>158</v>
       </c>
     </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>176</v>
+      </c>
       <c r="B54" t="s">
         <v>78</v>
       </c>
@@ -1689,7 +1798,10 @@
         <v>158</v>
       </c>
     </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>176</v>
+      </c>
       <c r="B55" t="s">
         <v>79</v>
       </c>
@@ -1703,7 +1815,10 @@
         <v>158</v>
       </c>
     </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>176</v>
+      </c>
       <c r="B56" t="s">
         <v>81</v>
       </c>
@@ -1720,7 +1835,10 @@
         <v>160</v>
       </c>
     </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>175</v>
+      </c>
       <c r="B57" t="s">
         <v>82</v>
       </c>
@@ -1734,7 +1852,10 @@
         <v>162</v>
       </c>
     </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>175</v>
+      </c>
       <c r="B58" t="s">
         <v>84</v>
       </c>
@@ -1748,7 +1869,10 @@
         <v>164</v>
       </c>
     </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>176</v>
+      </c>
       <c r="B59" t="s">
         <v>86</v>
       </c>
@@ -1762,7 +1886,10 @@
         <v>166</v>
       </c>
     </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>175</v>
+      </c>
       <c r="B60" t="s">
         <v>88</v>
       </c>
@@ -1776,7 +1903,10 @@
         <v>168</v>
       </c>
     </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>176</v>
+      </c>
       <c r="B61" t="s">
         <v>90</v>
       </c>
@@ -1790,7 +1920,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
         <v>92</v>
       </c>

--- a/WstepnyBOM.xlsx
+++ b/WstepnyBOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\staska72\Documents\GitHub\CAM-CAD-EDA-PROJEKT-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1ABF647-E997-40C7-8A6E-7A8029DCD421}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8B6C31A-3AC4-47EC-A0A0-F41CCB6D8A95}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="178">
   <si>
     <t>R1</t>
   </si>
@@ -565,7 +565,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -590,6 +590,15 @@
       <family val="2"/>
       <charset val="238"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -612,10 +621,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperłącze" xfId="1" builtinId="8"/>
@@ -899,8 +909,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -911,26 +921,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="3" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>176</v>
+      </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -945,6 +958,9 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>176</v>
+      </c>
       <c r="B3" t="s">
         <v>1</v>
       </c>
@@ -959,6 +975,9 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>176</v>
+      </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
@@ -973,6 +992,9 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>176</v>
+      </c>
       <c r="B5" t="s">
         <v>5</v>
       </c>
@@ -987,6 +1009,9 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>176</v>
+      </c>
       <c r="B6" t="s">
         <v>6</v>
       </c>
@@ -1001,6 +1026,9 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>176</v>
+      </c>
       <c r="B7" t="s">
         <v>7</v>
       </c>
@@ -1015,6 +1043,9 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>176</v>
+      </c>
       <c r="B8" t="s">
         <v>8</v>
       </c>
@@ -1029,6 +1060,9 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>176</v>
+      </c>
       <c r="B9" t="s">
         <v>10</v>
       </c>
@@ -1043,6 +1077,9 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>176</v>
+      </c>
       <c r="B10" t="s">
         <v>11</v>
       </c>
@@ -1057,6 +1094,9 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>176</v>
+      </c>
       <c r="B11" t="s">
         <v>12</v>
       </c>
@@ -1071,6 +1111,9 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>176</v>
+      </c>
       <c r="B12" t="s">
         <v>14</v>
       </c>
@@ -1085,6 +1128,9 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>176</v>
+      </c>
       <c r="B13" t="s">
         <v>16</v>
       </c>
@@ -1099,6 +1145,9 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>176</v>
+      </c>
       <c r="B14" t="s">
         <v>17</v>
       </c>
@@ -1113,6 +1162,9 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>176</v>
+      </c>
       <c r="B15" t="s">
         <v>18</v>
       </c>
@@ -1127,6 +1179,9 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>176</v>
+      </c>
       <c r="B16" t="s">
         <v>19</v>
       </c>
@@ -1141,6 +1196,9 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>176</v>
+      </c>
       <c r="B17" t="s">
         <v>21</v>
       </c>
@@ -1158,6 +1216,9 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>176</v>
+      </c>
       <c r="B18" t="s">
         <v>23</v>
       </c>
@@ -1172,6 +1233,9 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>176</v>
+      </c>
       <c r="B19" t="s">
         <v>24</v>
       </c>
@@ -1186,6 +1250,9 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>176</v>
+      </c>
       <c r="B20" t="s">
         <v>25</v>
       </c>
@@ -1200,6 +1267,9 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>176</v>
+      </c>
       <c r="B21" t="s">
         <v>26</v>
       </c>
@@ -1214,6 +1284,9 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>176</v>
+      </c>
       <c r="B22" t="s">
         <v>28</v>
       </c>
@@ -1228,6 +1301,9 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>176</v>
+      </c>
       <c r="B23" t="s">
         <v>29</v>
       </c>

--- a/WstepnyBOM.xlsx
+++ b/WstepnyBOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\staska72\Documents\GitHub\CAM-CAD-EDA-PROJEKT-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8B6C31A-3AC4-47EC-A0A0-F41CCB6D8A95}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A29DD33-44BE-400D-A110-E7A029D46890}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -498,12 +498,6 @@
     <t>https://www.tme.eu/pl/details/cny17-1s/transoptory-wyjscie-analogowe/liteon/</t>
   </si>
   <si>
-    <t>74HC6323AD.112</t>
-  </si>
-  <si>
-    <t>https://www.tme.eu/pl/details/74hc6323ad.112/liczniki-dzielniki/nexperia/</t>
-  </si>
-  <si>
     <t>DG303BDY-E3</t>
   </si>
   <si>
@@ -559,6 +553,12 @@
   </si>
   <si>
     <t>? Upverter</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/NE555DR/296-6501-1-ND/372490?utm_campaign=buynow&amp;WT.z_cid=ref_octopart_dkc_buynow&amp;utm_medium=aggregator&amp;curr=usd&amp;site=us&amp;utm_source=octopart</t>
+  </si>
+  <si>
+    <t> NE555DR</t>
   </si>
 </sst>
 </file>
@@ -621,11 +621,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperłącze" xfId="1" builtinId="8"/>
@@ -909,8 +910,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="A56" sqref="A56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -922,7 +923,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>94</v>
@@ -942,7 +943,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -959,7 +960,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
@@ -976,7 +977,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
@@ -993,7 +994,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
@@ -1010,7 +1011,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
@@ -1027,7 +1028,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
@@ -1044,7 +1045,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
@@ -1061,7 +1062,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
@@ -1078,7 +1079,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B10" t="s">
         <v>11</v>
@@ -1095,7 +1096,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B11" t="s">
         <v>12</v>
@@ -1112,7 +1113,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B12" t="s">
         <v>14</v>
@@ -1129,7 +1130,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B13" t="s">
         <v>16</v>
@@ -1146,7 +1147,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B14" t="s">
         <v>17</v>
@@ -1163,7 +1164,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B15" t="s">
         <v>18</v>
@@ -1180,7 +1181,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B16" t="s">
         <v>19</v>
@@ -1197,7 +1198,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B17" t="s">
         <v>21</v>
@@ -1217,7 +1218,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B18" t="s">
         <v>23</v>
@@ -1234,7 +1235,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B19" t="s">
         <v>24</v>
@@ -1251,7 +1252,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B20" t="s">
         <v>25</v>
@@ -1268,7 +1269,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B21" t="s">
         <v>26</v>
@@ -1285,7 +1286,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B22" t="s">
         <v>28</v>
@@ -1302,7 +1303,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B23" t="s">
         <v>29</v>
@@ -1319,7 +1320,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B24" t="s">
         <v>30</v>
@@ -1336,7 +1337,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B25" t="s">
         <v>32</v>
@@ -1356,7 +1357,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B26" t="s">
         <v>34</v>
@@ -1376,7 +1377,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B27" t="s">
         <v>37</v>
@@ -1393,7 +1394,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B28" t="s">
         <v>39</v>
@@ -1410,7 +1411,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B29" t="s">
         <v>40</v>
@@ -1427,7 +1428,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B30" t="s">
         <v>41</v>
@@ -1444,7 +1445,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B31" t="s">
         <v>42</v>
@@ -1461,7 +1462,7 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B32" t="s">
         <v>43</v>
@@ -1478,7 +1479,7 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B33" t="s">
         <v>44</v>
@@ -1495,7 +1496,7 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B34" t="s">
         <v>46</v>
@@ -1515,7 +1516,7 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B35" t="s">
         <v>49</v>
@@ -1535,7 +1536,7 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B36" t="s">
         <v>50</v>
@@ -1555,7 +1556,7 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B37" t="s">
         <v>51</v>
@@ -1575,7 +1576,7 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B38" t="s">
         <v>52</v>
@@ -1595,7 +1596,7 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B39" t="s">
         <v>54</v>
@@ -1612,7 +1613,7 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B40" t="s">
         <v>55</v>
@@ -1629,7 +1630,7 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B41" t="s">
         <v>57</v>
@@ -1646,7 +1647,7 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B42" t="s">
         <v>59</v>
@@ -1663,7 +1664,7 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B43" t="s">
         <v>61</v>
@@ -1680,7 +1681,7 @@
     </row>
     <row r="44" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B44" t="s">
         <v>63</v>
@@ -1700,7 +1701,7 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B45" t="s">
         <v>65</v>
@@ -1717,7 +1718,7 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B46" t="s">
         <v>66</v>
@@ -1734,7 +1735,7 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B47" t="s">
         <v>68</v>
@@ -1751,7 +1752,7 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B48" t="s">
         <v>70</v>
@@ -1768,7 +1769,7 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B49" t="s">
         <v>71</v>
@@ -1785,7 +1786,7 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B50" t="s">
         <v>69</v>
@@ -1805,7 +1806,7 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B51" t="s">
         <v>74</v>
@@ -1822,7 +1823,7 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B52" t="s">
         <v>76</v>
@@ -1833,16 +1834,16 @@
       <c r="D52" t="s">
         <v>153</v>
       </c>
-      <c r="E52" s="2" t="s">
-        <v>157</v>
+      <c r="E52" s="4" t="s">
+        <v>177</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B53" t="s">
         <v>77</v>
@@ -1850,16 +1851,16 @@
       <c r="C53" t="s">
         <v>80</v>
       </c>
-      <c r="E53" t="s">
-        <v>157</v>
+      <c r="E53" s="4" t="s">
+        <v>177</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B54" t="s">
         <v>78</v>
@@ -1867,16 +1868,16 @@
       <c r="C54" t="s">
         <v>80</v>
       </c>
-      <c r="E54" t="s">
-        <v>157</v>
+      <c r="E54" s="4" t="s">
+        <v>177</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B55" t="s">
         <v>79</v>
@@ -1884,16 +1885,16 @@
       <c r="C55" t="s">
         <v>80</v>
       </c>
-      <c r="E55" t="s">
-        <v>157</v>
+      <c r="E55" s="4" t="s">
+        <v>177</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B56" t="s">
         <v>81</v>
@@ -1905,15 +1906,15 @@
         <v>153</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B57" t="s">
         <v>82</v>
@@ -1922,15 +1923,15 @@
         <v>83</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B58" t="s">
         <v>84</v>
@@ -1939,15 +1940,15 @@
         <v>85</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B59" t="s">
         <v>86</v>
@@ -1956,15 +1957,15 @@
         <v>87</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B60" t="s">
         <v>88</v>
@@ -1973,15 +1974,15 @@
         <v>89</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B61" t="s">
         <v>90</v>
@@ -1990,10 +1991,10 @@
         <v>91</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -2004,13 +2005,13 @@
         <v>93</v>
       </c>
       <c r="D62" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -2066,16 +2067,16 @@
     <hyperlink ref="F50" r:id="rId49" xr:uid="{F1DB9E2B-E264-4EC7-B161-19B0223085F8}"/>
     <hyperlink ref="F51" r:id="rId50" xr:uid="{4CBCC983-622F-48CD-85FB-C2EFE6DB628D}"/>
     <hyperlink ref="F52" r:id="rId51" xr:uid="{3273A890-A618-4671-9137-9311A3D8C1B5}"/>
-    <hyperlink ref="F53" r:id="rId52" xr:uid="{8120BDA8-716F-46D3-8251-5755780A30AB}"/>
-    <hyperlink ref="F54" r:id="rId53" xr:uid="{553A00D4-1B0D-4B6A-9F74-77A8F0759F34}"/>
-    <hyperlink ref="F55" r:id="rId54" xr:uid="{DE1193CC-B0F6-4D41-BA56-DC9ACA1C6809}"/>
-    <hyperlink ref="F56" r:id="rId55" xr:uid="{7143723B-658A-4951-AA43-4032ACD82601}"/>
-    <hyperlink ref="F57" r:id="rId56" xr:uid="{C3E69288-0F38-4F1E-A11C-39CAAD8C8F62}"/>
-    <hyperlink ref="F58" r:id="rId57" xr:uid="{A32F4CDC-33FE-4272-8987-38FA7A988B16}"/>
-    <hyperlink ref="F59" r:id="rId58" xr:uid="{CA08BA1A-D1C5-45D4-A0EA-231BFE6D9940}"/>
-    <hyperlink ref="F60" r:id="rId59" xr:uid="{D8C3D4AD-EAFD-4AED-AA1B-117D375C915F}"/>
-    <hyperlink ref="F61" r:id="rId60" xr:uid="{9C87A8F7-2500-4B89-9770-FD1A73A2A423}"/>
-    <hyperlink ref="F62" r:id="rId61" xr:uid="{D44FF51B-EBEE-4CF2-AD5E-B435B0AF078D}"/>
+    <hyperlink ref="F56" r:id="rId52" xr:uid="{7143723B-658A-4951-AA43-4032ACD82601}"/>
+    <hyperlink ref="F57" r:id="rId53" xr:uid="{C3E69288-0F38-4F1E-A11C-39CAAD8C8F62}"/>
+    <hyperlink ref="F58" r:id="rId54" xr:uid="{A32F4CDC-33FE-4272-8987-38FA7A988B16}"/>
+    <hyperlink ref="F59" r:id="rId55" xr:uid="{CA08BA1A-D1C5-45D4-A0EA-231BFE6D9940}"/>
+    <hyperlink ref="F60" r:id="rId56" xr:uid="{D8C3D4AD-EAFD-4AED-AA1B-117D375C915F}"/>
+    <hyperlink ref="F61" r:id="rId57" xr:uid="{9C87A8F7-2500-4B89-9770-FD1A73A2A423}"/>
+    <hyperlink ref="F62" r:id="rId58" xr:uid="{D44FF51B-EBEE-4CF2-AD5E-B435B0AF078D}"/>
+    <hyperlink ref="F53" r:id="rId59" xr:uid="{8E9093E0-451D-4F11-905E-F2F147E38411}"/>
+    <hyperlink ref="F54" r:id="rId60" xr:uid="{3C65790B-CE36-4A50-A3E1-8B84B3202D39}"/>
+    <hyperlink ref="F55" r:id="rId61" xr:uid="{540BC24B-631A-4F1A-A356-9B6364ECEB77}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId62"/>

--- a/WstepnyBOM.xlsx
+++ b/WstepnyBOM.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\staska72\Documents\GitHub\CAM-CAD-EDA-PROJEKT-\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Elektronika\Semestr 7\CAMCADEDA\Projekt\CAM-CAD-EDA-PROJEKT-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A29DD33-44BE-400D-A110-E7A029D46890}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -246,9 +245,6 @@
     <t>BC 327</t>
   </si>
   <si>
-    <t>BUT11</t>
-  </si>
-  <si>
     <t>TO1</t>
   </si>
   <si>
@@ -483,15 +479,9 @@
     <t>https://www.tme.eu/pl/details/bc807-16-dio/tranzystory-pnp-smd/diotec-semiconductor/bc807-16/</t>
   </si>
   <si>
-    <t>2DD2098R-13</t>
-  </si>
-  <si>
     <t>?</t>
   </si>
   <si>
-    <t>https://www.tme.eu/pl/details/2dd2098r-13/tranzystory-npn-smd/diodes-incorporated/</t>
-  </si>
-  <si>
     <t>CNY17-1S</t>
   </si>
   <si>
@@ -559,12 +549,21 @@
   </si>
   <si>
     <t> NE555DR</t>
+  </si>
+  <si>
+    <t>https://www.tme.eu/pl/details/tn2540n8-g/tranzystory-z-kanalem-n-smd/microchip-supertex/</t>
+  </si>
+  <si>
+    <t>TN2540N8-G</t>
+  </si>
+  <si>
+    <t>IRF740</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -907,43 +906,43 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="A56" sqref="A56"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" customWidth="1"/>
-    <col min="5" max="5" width="17.5703125" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" customWidth="1"/>
+    <col min="5" max="5" width="17.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -952,15 +951,15 @@
         <v>2</v>
       </c>
       <c r="E2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
@@ -969,15 +968,15 @@
         <v>3</v>
       </c>
       <c r="E3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
@@ -986,15 +985,15 @@
         <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
@@ -1003,15 +1002,15 @@
         <v>9</v>
       </c>
       <c r="E5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
@@ -1020,15 +1019,15 @@
         <v>9</v>
       </c>
       <c r="E6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
@@ -1037,15 +1036,15 @@
         <v>9</v>
       </c>
       <c r="E7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
@@ -1054,15 +1053,15 @@
         <v>9</v>
       </c>
       <c r="E8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
@@ -1071,15 +1070,15 @@
         <v>22</v>
       </c>
       <c r="E9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B10" t="s">
         <v>11</v>
@@ -1088,15 +1087,15 @@
         <v>22</v>
       </c>
       <c r="E10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B11" t="s">
         <v>12</v>
@@ -1105,15 +1104,15 @@
         <v>13</v>
       </c>
       <c r="E11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B12" t="s">
         <v>14</v>
@@ -1122,15 +1121,15 @@
         <v>15</v>
       </c>
       <c r="E12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B13" t="s">
         <v>16</v>
@@ -1139,15 +1138,15 @@
         <v>20</v>
       </c>
       <c r="E13" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B14" t="s">
         <v>17</v>
@@ -1156,15 +1155,15 @@
         <v>20</v>
       </c>
       <c r="E14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B15" t="s">
         <v>18</v>
@@ -1173,15 +1172,15 @@
         <v>20</v>
       </c>
       <c r="E15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B16" t="s">
         <v>19</v>
@@ -1190,15 +1189,15 @@
         <v>20</v>
       </c>
       <c r="E16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B17" t="s">
         <v>21</v>
@@ -1210,15 +1209,15 @@
         <v>22</v>
       </c>
       <c r="E17" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B18" t="s">
         <v>23</v>
@@ -1227,15 +1226,15 @@
         <v>430</v>
       </c>
       <c r="E18" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B19" t="s">
         <v>24</v>
@@ -1244,15 +1243,15 @@
         <v>27</v>
       </c>
       <c r="E19" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B20" t="s">
         <v>25</v>
@@ -1261,15 +1260,15 @@
         <v>27</v>
       </c>
       <c r="E20" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B21" t="s">
         <v>26</v>
@@ -1278,15 +1277,15 @@
         <v>27</v>
       </c>
       <c r="E21" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B22" t="s">
         <v>28</v>
@@ -1295,15 +1294,15 @@
         <v>470</v>
       </c>
       <c r="E22" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B23" t="s">
         <v>29</v>
@@ -1312,15 +1311,15 @@
         <v>270</v>
       </c>
       <c r="E23" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B24" t="s">
         <v>30</v>
@@ -1329,15 +1328,15 @@
         <v>31</v>
       </c>
       <c r="E24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B25" t="s">
         <v>32</v>
@@ -1349,15 +1348,15 @@
         <v>33</v>
       </c>
       <c r="E25" t="s">
+        <v>124</v>
+      </c>
+      <c r="F25" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="F25" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B26" t="s">
         <v>34</v>
@@ -1369,15 +1368,15 @@
         <v>36</v>
       </c>
       <c r="E26" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B27" t="s">
         <v>37</v>
@@ -1386,15 +1385,15 @@
         <v>38</v>
       </c>
       <c r="E27" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B28" t="s">
         <v>39</v>
@@ -1403,15 +1402,15 @@
         <v>45</v>
       </c>
       <c r="E28" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B29" t="s">
         <v>40</v>
@@ -1420,15 +1419,15 @@
         <v>45</v>
       </c>
       <c r="E29" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B30" t="s">
         <v>41</v>
@@ -1437,15 +1436,15 @@
         <v>45</v>
       </c>
       <c r="E30" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B31" t="s">
         <v>42</v>
@@ -1454,15 +1453,15 @@
         <v>45</v>
       </c>
       <c r="E31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B32" t="s">
         <v>43</v>
@@ -1471,15 +1470,15 @@
         <v>45</v>
       </c>
       <c r="E32" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B33" t="s">
         <v>44</v>
@@ -1488,15 +1487,15 @@
         <v>45</v>
       </c>
       <c r="E33" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B34" t="s">
         <v>46</v>
@@ -1508,15 +1507,15 @@
         <v>48</v>
       </c>
       <c r="E34" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B35" t="s">
         <v>49</v>
@@ -1528,15 +1527,15 @@
         <v>48</v>
       </c>
       <c r="E35" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B36" t="s">
         <v>50</v>
@@ -1548,15 +1547,15 @@
         <v>48</v>
       </c>
       <c r="E36" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B37" t="s">
         <v>51</v>
@@ -1568,15 +1567,15 @@
         <v>48</v>
       </c>
       <c r="E37" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B38" t="s">
         <v>52</v>
@@ -1588,15 +1587,15 @@
         <v>48</v>
       </c>
       <c r="E38" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B39" t="s">
         <v>54</v>
@@ -1605,15 +1604,15 @@
         <v>56</v>
       </c>
       <c r="E39" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B40" t="s">
         <v>55</v>
@@ -1622,15 +1621,15 @@
         <v>56</v>
       </c>
       <c r="E40" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B41" t="s">
         <v>57</v>
@@ -1639,15 +1638,15 @@
         <v>58</v>
       </c>
       <c r="E41" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B42" t="s">
         <v>59</v>
@@ -1656,15 +1655,15 @@
         <v>60</v>
       </c>
       <c r="E42" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B43" t="s">
         <v>61</v>
@@ -1673,15 +1672,15 @@
         <v>62</v>
       </c>
       <c r="E43" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B44" t="s">
         <v>63</v>
@@ -1690,18 +1689,18 @@
         <v>64</v>
       </c>
       <c r="D44" t="s">
+        <v>144</v>
+      </c>
+      <c r="E44" t="s">
+        <v>146</v>
+      </c>
+      <c r="F44" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="E44" t="s">
-        <v>147</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B45" t="s">
         <v>65</v>
@@ -1710,15 +1709,15 @@
         <v>67</v>
       </c>
       <c r="E45" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B46" t="s">
         <v>66</v>
@@ -1727,15 +1726,15 @@
         <v>67</v>
       </c>
       <c r="E46" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B47" t="s">
         <v>68</v>
@@ -1744,15 +1743,15 @@
         <v>72</v>
       </c>
       <c r="E47" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F47" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="F47" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B48" t="s">
         <v>70</v>
@@ -1761,15 +1760,15 @@
         <v>72</v>
       </c>
       <c r="E48" t="s">
+        <v>149</v>
+      </c>
+      <c r="F48" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="F48" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B49" t="s">
         <v>71</v>
@@ -1778,305 +1777,305 @@
         <v>72</v>
       </c>
       <c r="E49" t="s">
+        <v>149</v>
+      </c>
+      <c r="F49" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="F49" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B50" t="s">
         <v>69</v>
       </c>
       <c r="C50" t="s">
+        <v>177</v>
+      </c>
+      <c r="D50" t="s">
+        <v>151</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>171</v>
+      </c>
+      <c r="B51" t="s">
         <v>73</v>
       </c>
-      <c r="D50" t="s">
+      <c r="C51" t="s">
+        <v>74</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="F51" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="E50" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>170</v>
+      </c>
+      <c r="B52" t="s">
+        <v>75</v>
+      </c>
+      <c r="C52" t="s">
+        <v>79</v>
+      </c>
+      <c r="D52" t="s">
+        <v>151</v>
+      </c>
+      <c r="E52" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="B51" t="s">
-        <v>74</v>
-      </c>
-      <c r="C51" t="s">
-        <v>75</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+      <c r="F52" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="B52" t="s">
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>170</v>
+      </c>
+      <c r="B53" t="s">
         <v>76</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C53" t="s">
+        <v>79</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>170</v>
+      </c>
+      <c r="B54" t="s">
+        <v>77</v>
+      </c>
+      <c r="C54" t="s">
+        <v>79</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>170</v>
+      </c>
+      <c r="B55" t="s">
+        <v>78</v>
+      </c>
+      <c r="C55" t="s">
+        <v>79</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>171</v>
+      </c>
+      <c r="B56" t="s">
         <v>80</v>
-      </c>
-      <c r="D52" t="s">
-        <v>153</v>
-      </c>
-      <c r="E52" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>173</v>
-      </c>
-      <c r="B53" t="s">
-        <v>77</v>
-      </c>
-      <c r="C53" t="s">
-        <v>80</v>
-      </c>
-      <c r="E53" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>173</v>
-      </c>
-      <c r="B54" t="s">
-        <v>78</v>
-      </c>
-      <c r="C54" t="s">
-        <v>80</v>
-      </c>
-      <c r="E54" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>173</v>
-      </c>
-      <c r="B55" t="s">
-        <v>79</v>
-      </c>
-      <c r="C55" t="s">
-        <v>80</v>
-      </c>
-      <c r="E55" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>174</v>
-      </c>
-      <c r="B56" t="s">
-        <v>81</v>
       </c>
       <c r="C56">
         <v>4066</v>
       </c>
       <c r="D56" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E56" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>170</v>
+      </c>
+      <c r="B57" t="s">
+        <v>81</v>
+      </c>
+      <c r="C57" t="s">
+        <v>82</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F57" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="F56" s="1" t="s">
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>170</v>
+      </c>
+      <c r="B58" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58" t="s">
+        <v>84</v>
+      </c>
+      <c r="E58" s="2" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>173</v>
-      </c>
-      <c r="B57" t="s">
-        <v>82</v>
-      </c>
-      <c r="C57" t="s">
-        <v>83</v>
-      </c>
-      <c r="E57" s="2" t="s">
+      <c r="F58" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="F57" s="1" t="s">
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>171</v>
+      </c>
+      <c r="B59" t="s">
+        <v>85</v>
+      </c>
+      <c r="C59" t="s">
+        <v>86</v>
+      </c>
+      <c r="E59" s="2" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>173</v>
-      </c>
-      <c r="B58" t="s">
-        <v>84</v>
-      </c>
-      <c r="C58" t="s">
-        <v>85</v>
-      </c>
-      <c r="E58" s="2" t="s">
+      <c r="F59" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="F58" s="1" t="s">
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>170</v>
+      </c>
+      <c r="B60" t="s">
+        <v>87</v>
+      </c>
+      <c r="C60" t="s">
+        <v>88</v>
+      </c>
+      <c r="E60" s="2" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>174</v>
-      </c>
-      <c r="B59" t="s">
-        <v>86</v>
-      </c>
-      <c r="C59" t="s">
-        <v>87</v>
-      </c>
-      <c r="E59" s="2" t="s">
+      <c r="F60" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="F59" s="1" t="s">
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>171</v>
+      </c>
+      <c r="B61" t="s">
+        <v>89</v>
+      </c>
+      <c r="C61" t="s">
+        <v>90</v>
+      </c>
+      <c r="E61" s="2" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>173</v>
-      </c>
-      <c r="B60" t="s">
-        <v>88</v>
-      </c>
-      <c r="C60" t="s">
-        <v>89</v>
-      </c>
-      <c r="E60" s="2" t="s">
+      <c r="F61" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="F60" s="1" t="s">
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B62" t="s">
+        <v>91</v>
+      </c>
+      <c r="C62" t="s">
+        <v>92</v>
+      </c>
+      <c r="D62" t="s">
+        <v>168</v>
+      </c>
+      <c r="E62" s="2" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>174</v>
-      </c>
-      <c r="B61" t="s">
-        <v>90</v>
-      </c>
-      <c r="C61" t="s">
-        <v>91</v>
-      </c>
-      <c r="E61" s="2" t="s">
+      <c r="F62" s="1" t="s">
         <v>167</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B62" t="s">
-        <v>92</v>
-      </c>
-      <c r="C62" t="s">
-        <v>93</v>
-      </c>
-      <c r="D62" t="s">
-        <v>171</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>170</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="F3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="F4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="F5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="F6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="F7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="F8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="F9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="F10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="F11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="F12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="F13" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="F14" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="F15" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="F16" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="F17" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="F18" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="F19" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="F20" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="F21" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="F22" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="F23" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="F24" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="F25" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="F26" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="F27" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="F28" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="F29" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="F30" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="F31" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="F32" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="F33" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="F34" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="F35" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="F36" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="F37" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="F38" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="F39" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="F40" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="F41" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="F42" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="F43" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="F44" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="F45" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="F46" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="F47" r:id="rId46" xr:uid="{640B7187-9376-4F94-8959-F470E0C9EEE5}"/>
-    <hyperlink ref="F48" r:id="rId47" xr:uid="{A24FB901-C22A-4D77-8207-B8608EA859F2}"/>
-    <hyperlink ref="F49" r:id="rId48" xr:uid="{88255A86-205E-4ECE-AE75-2C0186581811}"/>
-    <hyperlink ref="F50" r:id="rId49" xr:uid="{F1DB9E2B-E264-4EC7-B161-19B0223085F8}"/>
-    <hyperlink ref="F51" r:id="rId50" xr:uid="{4CBCC983-622F-48CD-85FB-C2EFE6DB628D}"/>
-    <hyperlink ref="F52" r:id="rId51" xr:uid="{3273A890-A618-4671-9137-9311A3D8C1B5}"/>
-    <hyperlink ref="F56" r:id="rId52" xr:uid="{7143723B-658A-4951-AA43-4032ACD82601}"/>
-    <hyperlink ref="F57" r:id="rId53" xr:uid="{C3E69288-0F38-4F1E-A11C-39CAAD8C8F62}"/>
-    <hyperlink ref="F58" r:id="rId54" xr:uid="{A32F4CDC-33FE-4272-8987-38FA7A988B16}"/>
-    <hyperlink ref="F59" r:id="rId55" xr:uid="{CA08BA1A-D1C5-45D4-A0EA-231BFE6D9940}"/>
-    <hyperlink ref="F60" r:id="rId56" xr:uid="{D8C3D4AD-EAFD-4AED-AA1B-117D375C915F}"/>
-    <hyperlink ref="F61" r:id="rId57" xr:uid="{9C87A8F7-2500-4B89-9770-FD1A73A2A423}"/>
-    <hyperlink ref="F62" r:id="rId58" xr:uid="{D44FF51B-EBEE-4CF2-AD5E-B435B0AF078D}"/>
-    <hyperlink ref="F53" r:id="rId59" xr:uid="{8E9093E0-451D-4F11-905E-F2F147E38411}"/>
-    <hyperlink ref="F54" r:id="rId60" xr:uid="{3C65790B-CE36-4A50-A3E1-8B84B3202D39}"/>
-    <hyperlink ref="F55" r:id="rId61" xr:uid="{540BC24B-631A-4F1A-A356-9B6364ECEB77}"/>
+    <hyperlink ref="F2" r:id="rId1"/>
+    <hyperlink ref="F3" r:id="rId2"/>
+    <hyperlink ref="F4" r:id="rId3"/>
+    <hyperlink ref="F5" r:id="rId4"/>
+    <hyperlink ref="F6" r:id="rId5"/>
+    <hyperlink ref="F7" r:id="rId6"/>
+    <hyperlink ref="F8" r:id="rId7"/>
+    <hyperlink ref="F9" r:id="rId8"/>
+    <hyperlink ref="F10" r:id="rId9"/>
+    <hyperlink ref="F11" r:id="rId10"/>
+    <hyperlink ref="F12" r:id="rId11"/>
+    <hyperlink ref="F13" r:id="rId12"/>
+    <hyperlink ref="F14" r:id="rId13"/>
+    <hyperlink ref="F15" r:id="rId14"/>
+    <hyperlink ref="F16" r:id="rId15"/>
+    <hyperlink ref="F17" r:id="rId16"/>
+    <hyperlink ref="F18" r:id="rId17"/>
+    <hyperlink ref="F19" r:id="rId18"/>
+    <hyperlink ref="F20" r:id="rId19"/>
+    <hyperlink ref="F21" r:id="rId20"/>
+    <hyperlink ref="F22" r:id="rId21"/>
+    <hyperlink ref="F23" r:id="rId22"/>
+    <hyperlink ref="F24" r:id="rId23"/>
+    <hyperlink ref="F25" r:id="rId24"/>
+    <hyperlink ref="F26" r:id="rId25"/>
+    <hyperlink ref="F27" r:id="rId26"/>
+    <hyperlink ref="F28" r:id="rId27"/>
+    <hyperlink ref="F29" r:id="rId28"/>
+    <hyperlink ref="F30" r:id="rId29"/>
+    <hyperlink ref="F31" r:id="rId30"/>
+    <hyperlink ref="F32" r:id="rId31"/>
+    <hyperlink ref="F33" r:id="rId32"/>
+    <hyperlink ref="F34" r:id="rId33"/>
+    <hyperlink ref="F35" r:id="rId34"/>
+    <hyperlink ref="F36" r:id="rId35"/>
+    <hyperlink ref="F37" r:id="rId36"/>
+    <hyperlink ref="F38" r:id="rId37"/>
+    <hyperlink ref="F39" r:id="rId38"/>
+    <hyperlink ref="F40" r:id="rId39"/>
+    <hyperlink ref="F41" r:id="rId40"/>
+    <hyperlink ref="F42" r:id="rId41"/>
+    <hyperlink ref="F43" r:id="rId42"/>
+    <hyperlink ref="F44" r:id="rId43"/>
+    <hyperlink ref="F45" r:id="rId44"/>
+    <hyperlink ref="F46" r:id="rId45"/>
+    <hyperlink ref="F47" r:id="rId46"/>
+    <hyperlink ref="F48" r:id="rId47"/>
+    <hyperlink ref="F49" r:id="rId48"/>
+    <hyperlink ref="F51" r:id="rId49"/>
+    <hyperlink ref="F52" r:id="rId50"/>
+    <hyperlink ref="F56" r:id="rId51"/>
+    <hyperlink ref="F57" r:id="rId52"/>
+    <hyperlink ref="F58" r:id="rId53"/>
+    <hyperlink ref="F59" r:id="rId54"/>
+    <hyperlink ref="F60" r:id="rId55"/>
+    <hyperlink ref="F61" r:id="rId56"/>
+    <hyperlink ref="F62" r:id="rId57"/>
+    <hyperlink ref="F53" r:id="rId58"/>
+    <hyperlink ref="F54" r:id="rId59"/>
+    <hyperlink ref="F55" r:id="rId60"/>
+    <hyperlink ref="F50" r:id="rId61"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId62"/>

--- a/WstepnyBOM.xlsx
+++ b/WstepnyBOM.xlsx
@@ -467,12 +467,6 @@
     <t>LL-S194PVC-V1-2B</t>
   </si>
   <si>
-    <t>https://www.tme.eu/pl/details/1n4148-0603/diody-uniwersalne-smd/dc-components/cd4148wt-0603c/</t>
-  </si>
-  <si>
-    <t>CD4148WT(0603C)</t>
-  </si>
-  <si>
     <t>BC807-16-DIO</t>
   </si>
   <si>
@@ -488,12 +482,6 @@
     <t>https://www.tme.eu/pl/details/cny17-1s/transoptory-wyjscie-analogowe/liteon/</t>
   </si>
   <si>
-    <t>DG303BDY-E3</t>
-  </si>
-  <si>
-    <t>https://www.tme.eu/pl/details/dg303bdy-e3/multipleksery-i-przelaczniki-analogowe/vishay/</t>
-  </si>
-  <si>
     <t>L78L08ACD13TR</t>
   </si>
   <si>
@@ -512,12 +500,6 @@
     <t>https://www.tme.eu/pl/details/icl7660scbaz-t/regulatory-napiecia-uklady-dc-dc/renesas-intersil/</t>
   </si>
   <si>
-    <t>LM6171BIM</t>
-  </si>
-  <si>
-    <t>https://www.tme.eu/pl/details/lm6171bim/wzmacniacze-operacyjne-smd/texas-instruments/lm171bim-nopb/</t>
-  </si>
-  <si>
     <t>AP4310AMTR-G1</t>
   </si>
   <si>
@@ -558,6 +540,24 @@
   </si>
   <si>
     <t>IRF740</t>
+  </si>
+  <si>
+    <t>CD4066BM96</t>
+  </si>
+  <si>
+    <t>https://pl.mouser.com/ProductDetail/Texas-Instruments/CD4066BM96?qs=sGAEpiMZZMtxrAS98ir%252Bs6Yg1tqWLu1bvUL7w2hcLiU%3D</t>
+  </si>
+  <si>
+    <t>1N4148WS</t>
+  </si>
+  <si>
+    <t>https://pl.mouser.com/ProductDetail/ON-Semiconductor-Fairchild/1N4148WS?qs=sGAEpiMZZMtoHjESLttvkr4bXZrJfFziTdC5C0Y1oek%3D</t>
+  </si>
+  <si>
+    <t>https://pl.mouser.com/ProductDetail/Texas-Instruments/NE5534DR?qs=sGAEpiMZZMtCHixnSjNA6Mrdwin7F8A2yVUSSpLzDF4%3D</t>
+  </si>
+  <si>
+    <t>NE5534DR</t>
   </si>
 </sst>
 </file>
@@ -909,8 +909,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="D66" sqref="D66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -922,7 +922,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>93</v>
@@ -942,7 +942,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -959,7 +959,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
@@ -976,7 +976,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
@@ -993,7 +993,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
@@ -1010,7 +1010,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
@@ -1027,7 +1027,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
@@ -1044,7 +1044,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
@@ -1061,7 +1061,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
@@ -1078,7 +1078,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="B10" t="s">
         <v>11</v>
@@ -1095,7 +1095,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="B11" t="s">
         <v>12</v>
@@ -1112,7 +1112,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="B12" t="s">
         <v>14</v>
@@ -1129,7 +1129,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="B13" t="s">
         <v>16</v>
@@ -1146,7 +1146,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="B14" t="s">
         <v>17</v>
@@ -1163,7 +1163,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="B15" t="s">
         <v>18</v>
@@ -1180,7 +1180,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="B16" t="s">
         <v>19</v>
@@ -1197,7 +1197,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="B17" t="s">
         <v>21</v>
@@ -1217,7 +1217,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="B18" t="s">
         <v>23</v>
@@ -1234,7 +1234,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="B19" t="s">
         <v>24</v>
@@ -1251,7 +1251,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="B20" t="s">
         <v>25</v>
@@ -1268,7 +1268,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="B21" t="s">
         <v>26</v>
@@ -1285,7 +1285,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="B22" t="s">
         <v>28</v>
@@ -1302,7 +1302,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="B23" t="s">
         <v>29</v>
@@ -1319,7 +1319,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="B24" t="s">
         <v>30</v>
@@ -1336,7 +1336,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="B25" t="s">
         <v>32</v>
@@ -1356,7 +1356,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="B26" t="s">
         <v>34</v>
@@ -1376,7 +1376,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="B27" t="s">
         <v>37</v>
@@ -1393,7 +1393,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="B28" t="s">
         <v>39</v>
@@ -1410,7 +1410,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="B29" t="s">
         <v>40</v>
@@ -1427,7 +1427,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="B30" t="s">
         <v>41</v>
@@ -1444,7 +1444,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="B31" t="s">
         <v>42</v>
@@ -1461,7 +1461,7 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="B32" t="s">
         <v>43</v>
@@ -1478,7 +1478,7 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="B33" t="s">
         <v>44</v>
@@ -1495,7 +1495,7 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="B34" t="s">
         <v>46</v>
@@ -1515,7 +1515,7 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="B35" t="s">
         <v>49</v>
@@ -1535,7 +1535,7 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="B36" t="s">
         <v>50</v>
@@ -1555,7 +1555,7 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="B37" t="s">
         <v>51</v>
@@ -1575,7 +1575,7 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="B38" t="s">
         <v>52</v>
@@ -1595,7 +1595,7 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="B39" t="s">
         <v>54</v>
@@ -1612,7 +1612,7 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="B40" t="s">
         <v>55</v>
@@ -1629,7 +1629,7 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="B41" t="s">
         <v>57</v>
@@ -1646,7 +1646,7 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="B42" t="s">
         <v>59</v>
@@ -1663,7 +1663,7 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="B43" t="s">
         <v>61</v>
@@ -1680,7 +1680,7 @@
     </row>
     <row r="44" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="B44" t="s">
         <v>63</v>
@@ -1700,7 +1700,7 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="B45" t="s">
         <v>65</v>
@@ -1709,15 +1709,15 @@
         <v>67</v>
       </c>
       <c r="E45" t="s">
-        <v>148</v>
+        <v>174</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>147</v>
+        <v>175</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="B46" t="s">
         <v>66</v>
@@ -1726,15 +1726,15 @@
         <v>67</v>
       </c>
       <c r="E46" t="s">
-        <v>148</v>
+        <v>174</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>147</v>
+        <v>175</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="B47" t="s">
         <v>68</v>
@@ -1743,15 +1743,15 @@
         <v>72</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="B48" t="s">
         <v>70</v>
@@ -1760,15 +1760,15 @@
         <v>72</v>
       </c>
       <c r="E48" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="B49" t="s">
         <v>71</v>
@@ -1777,35 +1777,35 @@
         <v>72</v>
       </c>
       <c r="E49" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="B50" t="s">
         <v>69</v>
       </c>
       <c r="C50" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="D50" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="B51" t="s">
         <v>73</v>
@@ -1814,15 +1814,15 @@
         <v>74</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="B52" t="s">
         <v>75</v>
@@ -1831,18 +1831,18 @@
         <v>79</v>
       </c>
       <c r="D52" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="B53" t="s">
         <v>76</v>
@@ -1851,15 +1851,15 @@
         <v>79</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="B54" t="s">
         <v>77</v>
@@ -1868,15 +1868,15 @@
         <v>79</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="B55" t="s">
         <v>78</v>
@@ -1885,15 +1885,15 @@
         <v>79</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="B56" t="s">
         <v>80</v>
@@ -1902,18 +1902,18 @@
         <v>4066</v>
       </c>
       <c r="D56" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="B57" t="s">
         <v>81</v>
@@ -1922,15 +1922,15 @@
         <v>82</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="B58" t="s">
         <v>83</v>
@@ -1939,15 +1939,15 @@
         <v>84</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="B59" t="s">
         <v>85</v>
@@ -1956,15 +1956,15 @@
         <v>86</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="B60" t="s">
         <v>87</v>
@@ -1973,15 +1973,15 @@
         <v>88</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="B61" t="s">
         <v>89</v>
@@ -1990,10 +1990,10 @@
         <v>90</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
@@ -2004,13 +2004,13 @@
         <v>92</v>
       </c>
       <c r="D62" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -2058,24 +2058,24 @@
     <hyperlink ref="F42" r:id="rId41"/>
     <hyperlink ref="F43" r:id="rId42"/>
     <hyperlink ref="F44" r:id="rId43"/>
-    <hyperlink ref="F45" r:id="rId44"/>
-    <hyperlink ref="F46" r:id="rId45"/>
-    <hyperlink ref="F47" r:id="rId46"/>
-    <hyperlink ref="F48" r:id="rId47"/>
-    <hyperlink ref="F49" r:id="rId48"/>
-    <hyperlink ref="F51" r:id="rId49"/>
-    <hyperlink ref="F52" r:id="rId50"/>
-    <hyperlink ref="F56" r:id="rId51"/>
-    <hyperlink ref="F57" r:id="rId52"/>
-    <hyperlink ref="F58" r:id="rId53"/>
-    <hyperlink ref="F59" r:id="rId54"/>
-    <hyperlink ref="F60" r:id="rId55"/>
-    <hyperlink ref="F61" r:id="rId56"/>
-    <hyperlink ref="F62" r:id="rId57"/>
-    <hyperlink ref="F53" r:id="rId58"/>
-    <hyperlink ref="F54" r:id="rId59"/>
-    <hyperlink ref="F55" r:id="rId60"/>
-    <hyperlink ref="F50" r:id="rId61"/>
+    <hyperlink ref="F47" r:id="rId44"/>
+    <hyperlink ref="F48" r:id="rId45"/>
+    <hyperlink ref="F49" r:id="rId46"/>
+    <hyperlink ref="F51" r:id="rId47"/>
+    <hyperlink ref="F52" r:id="rId48"/>
+    <hyperlink ref="F57" r:id="rId49"/>
+    <hyperlink ref="F58" r:id="rId50"/>
+    <hyperlink ref="F59" r:id="rId51"/>
+    <hyperlink ref="F61" r:id="rId52"/>
+    <hyperlink ref="F62" r:id="rId53"/>
+    <hyperlink ref="F53" r:id="rId54"/>
+    <hyperlink ref="F54" r:id="rId55"/>
+    <hyperlink ref="F55" r:id="rId56"/>
+    <hyperlink ref="F50" r:id="rId57"/>
+    <hyperlink ref="F56" r:id="rId58"/>
+    <hyperlink ref="F45" r:id="rId59"/>
+    <hyperlink ref="F46" r:id="rId60"/>
+    <hyperlink ref="F60" r:id="rId61"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId62"/>
